--- a/data/trans_orig/P50_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P50_1-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9080</v>
+        <v>7363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009162040466435685</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04039202429426412</v>
+        <v>0.03275290544725137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7256</v>
+        <v>8151</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00553787792829027</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0195103015306986</v>
+        <v>0.02191494666712597</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5762</v>
+        <v>7484</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008443939636175141</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02563043226034637</v>
+        <v>0.03329000229845941</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5764</v>
+        <v>5675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007649748204903005</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03917903198097551</v>
+        <v>0.03857593325554533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -847,19 +847,19 @@
         <v>3024</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8247</v>
+        <v>8272</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008129787036230086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002498956844176513</v>
+        <v>0.002477543430927585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0221749537503785</v>
+        <v>0.02224111425929038</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>9618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5262</v>
+        <v>4569</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17193</v>
+        <v>16523</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0427841444285428</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02340900321719943</v>
+        <v>0.0203266845474514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07647956293863233</v>
+        <v>0.07350003927494676</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -897,19 +897,19 @@
         <v>5298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2036</v>
+        <v>2102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11485</v>
+        <v>10806</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03601406667448884</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01383969347440613</v>
+        <v>0.01428646769745547</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07806381636478689</v>
+        <v>0.07345077569552382</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -918,19 +918,19 @@
         <v>14916</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8744</v>
+        <v>8224</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23943</v>
+        <v>23927</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04010615339952923</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02351022077919568</v>
+        <v>0.02211308827295052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06437634357772565</v>
+        <v>0.06433504575131858</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>211226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202950</v>
+        <v>202837</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216809</v>
+        <v>217195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9396098754688463</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.902792327972332</v>
+        <v>0.9022935884191825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9644433122055988</v>
+        <v>0.9661612019820596</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>124</v>
@@ -968,19 +968,19 @@
         <v>140694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>133738</v>
+        <v>134557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144907</v>
+        <v>144127</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9563361851206081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9090547068630254</v>
+        <v>0.9146176011202996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9849711924847673</v>
+        <v>0.9796672350907627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>324</v>
@@ -989,19 +989,19 @@
         <v>351920</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>342120</v>
+        <v>341730</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>359662</v>
+        <v>359524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9462261816359504</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9198747539871613</v>
+        <v>0.9188277418588848</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9670411287375672</v>
+        <v>0.9666708582158542</v>
       </c>
     </row>
     <row r="8">
@@ -1093,19 +1093,19 @@
         <v>17868</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10356</v>
+        <v>11719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27173</v>
+        <v>27542</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04909528446970515</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02845427740138967</v>
+        <v>0.0322018199931401</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07466449050291603</v>
+        <v>0.07567711915115782</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1114,19 +1114,19 @@
         <v>7144</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3048</v>
+        <v>3060</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14798</v>
+        <v>14158</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02930616970878558</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01250107568861217</v>
+        <v>0.0125510706855117</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0606998681119175</v>
+        <v>0.05807626969333267</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -1135,19 +1135,19 @@
         <v>25012</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16021</v>
+        <v>16862</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35551</v>
+        <v>36354</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04115698140907682</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02636297103041918</v>
+        <v>0.02774621187565729</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05849800525938861</v>
+        <v>0.0598203402540378</v>
       </c>
     </row>
     <row r="10">
@@ -1164,19 +1164,19 @@
         <v>10085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4835</v>
+        <v>4867</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20247</v>
+        <v>20076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02771112277878065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01328629861178444</v>
+        <v>0.01337183241269087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05563331861516115</v>
+        <v>0.05516341700415776</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1185,19 +1185,19 @@
         <v>6055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2936</v>
+        <v>2055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12996</v>
+        <v>11269</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0248374526544761</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01204334404192063</v>
+        <v>0.00842763096231742</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05330825518360984</v>
+        <v>0.04622535351064647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1206,19 +1206,19 @@
         <v>16140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8931</v>
+        <v>9038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26391</v>
+        <v>27222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02655836457718321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01469537435043155</v>
+        <v>0.01487206341453918</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04342623836357872</v>
+        <v>0.04479344061045539</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>2987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8191</v>
+        <v>8066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008206159377508347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002607337226936673</v>
+        <v>0.002626573586728275</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02250555077189459</v>
+        <v>0.02216381291960579</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1256,19 +1256,19 @@
         <v>4463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1255</v>
+        <v>1095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10569</v>
+        <v>10944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01830652697801709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005149899527851656</v>
+        <v>0.004490219978511214</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04335500504891489</v>
+        <v>0.04489308872029409</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1277,19 +1277,19 @@
         <v>7449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3025</v>
+        <v>3054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14733</v>
+        <v>15379</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01225787063419034</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004977630179672204</v>
+        <v>0.005025118593220378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02424359923828813</v>
+        <v>0.02530646402957945</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>332998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>319895</v>
+        <v>319802</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>342210</v>
+        <v>342312</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9149874333740059</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8789855273370547</v>
+        <v>0.8787288288472076</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9402997545691356</v>
+        <v>0.940581237885076</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>206</v>
@@ -1327,19 +1327,19 @@
         <v>226122</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>215630</v>
+        <v>216684</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>232915</v>
+        <v>232637</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9275498506587212</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8845125921505432</v>
+        <v>0.8888358255340354</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9554139206326208</v>
+        <v>0.9542752840144613</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>520</v>
@@ -1348,19 +1348,19 @@
         <v>559121</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>542906</v>
+        <v>543130</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>572155</v>
+        <v>571084</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9200267833795496</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.893345221013462</v>
+        <v>0.89371419029567</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9414756488671965</v>
+        <v>0.9397125948253698</v>
       </c>
     </row>
     <row r="13">
@@ -1452,19 +1452,19 @@
         <v>2873</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7855</v>
+        <v>7704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01175059610259825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00378777447704918</v>
+        <v>0.003798968981202516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03212702063228</v>
+        <v>0.03151136460295868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4849</v>
+        <v>4795</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00646503602201297</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03265657240477433</v>
+        <v>0.03229779498252665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1494,19 +1494,19 @@
         <v>3833</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8684</v>
+        <v>8676</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009753585745615943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002420889885004234</v>
+        <v>0.002446986047160793</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02209863974318276</v>
+        <v>0.02207897284745463</v>
       </c>
     </row>
     <row r="15">
@@ -1523,19 +1523,19 @@
         <v>6663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13266</v>
+        <v>13305</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02725233459677743</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01155843170592405</v>
+        <v>0.01154394338661763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05425926474747746</v>
+        <v>0.05441682128118425</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5416</v>
+        <v>5920</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.007213418216691067</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.036477934328938</v>
+        <v>0.03987625613231957</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -1565,19 +1565,19 @@
         <v>7734</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3780</v>
+        <v>3797</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14575</v>
+        <v>14809</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0196811552054529</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.009619288156284109</v>
+        <v>0.009661928778638341</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03708940192249723</v>
+        <v>0.03768401869490267</v>
       </c>
     </row>
     <row r="16">
@@ -1594,19 +1594,19 @@
         <v>20562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12986</v>
+        <v>13604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30118</v>
+        <v>29983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08409886264148721</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05311365920522429</v>
+        <v>0.05564370989737035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1231852971383352</v>
+        <v>0.1226335677022904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1615,19 +1615,19 @@
         <v>3996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9110</v>
+        <v>10029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0269143840900653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006519768712067723</v>
+        <v>0.006568756846643463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06135765766101196</v>
+        <v>0.06754802691535232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1636,19 +1636,19 @@
         <v>24558</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15995</v>
+        <v>16284</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34702</v>
+        <v>35257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06249320606305003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04070358985100037</v>
+        <v>0.04143986295183716</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08830812959697629</v>
+        <v>0.08972006950000208</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>214395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202280</v>
+        <v>203512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>223040</v>
+        <v>223103</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8768982066591371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8273460488570465</v>
+        <v>0.8323825295030365</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9122551410048775</v>
+        <v>0.9125145114718253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>132</v>
@@ -1686,19 +1686,19 @@
         <v>142444</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>136857</v>
+        <v>136052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146416</v>
+        <v>146413</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9594071616712306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9217744568448571</v>
+        <v>0.9163564411562469</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9861604096009764</v>
+        <v>0.9861359418405878</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>345</v>
@@ -1707,19 +1707,19 @@
         <v>356841</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>344106</v>
+        <v>344346</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>366356</v>
+        <v>366672</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9080720529858811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8756658646940662</v>
+        <v>0.8762766544590789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9322878014034429</v>
+        <v>0.9330911886085138</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>6370</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2176</v>
+        <v>2101</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15252</v>
+        <v>15021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0219324178739366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00749410877357487</v>
+        <v>0.007235240458434896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05251943294854226</v>
+        <v>0.05172094971020774</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1832,19 +1832,19 @@
         <v>2806</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8413</v>
+        <v>7539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01567914658420834</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005146254186289432</v>
+        <v>0.005088236935268177</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04701531388338516</v>
+        <v>0.04213078197181532</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1853,19 +1853,19 @@
         <v>9175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4191</v>
+        <v>3931</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18418</v>
+        <v>17724</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01954845139047271</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00892926175817799</v>
+        <v>0.008375767357914371</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03924184174568904</v>
+        <v>0.03776362235193621</v>
       </c>
     </row>
     <row r="20">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6398</v>
+        <v>5300</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003652218495705889</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0220296234690577</v>
+        <v>0.01824813351150471</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5881</v>
+        <v>4155</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005696443383233101</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03286901154828806</v>
+        <v>0.02322320825908263</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6337</v>
+        <v>7269</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004431548767931993</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01350266418961037</v>
+        <v>0.01548811904510942</v>
       </c>
     </row>
     <row r="21">
@@ -1953,19 +1953,19 @@
         <v>6969</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2800</v>
+        <v>2852</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15327</v>
+        <v>15321</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02399787133576745</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009641257364820259</v>
+        <v>0.009818765577734921</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05277641654493703</v>
+        <v>0.05275470088907894</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6385</v>
+        <v>4805</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.00535912789106553</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03568247074594121</v>
+        <v>0.02685331261878577</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1995,19 +1995,19 @@
         <v>7928</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3750</v>
+        <v>2942</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16626</v>
+        <v>18190</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01689212818033456</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007989985668517307</v>
+        <v>0.006268402745704334</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03542370048206819</v>
+        <v>0.03875664417278081</v>
       </c>
     </row>
     <row r="22">
@@ -2024,19 +2024,19 @@
         <v>276016</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>264696</v>
+        <v>264086</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>282367</v>
+        <v>282279</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.95041749229459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.911436571628493</v>
+        <v>0.9093354814200497</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9722848025188283</v>
+        <v>0.9719823229832522</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -2045,19 +2045,19 @@
         <v>174148</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>167620</v>
+        <v>168783</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>177071</v>
+        <v>177075</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.973265282141493</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9367802339744856</v>
+        <v>0.9432791163439549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9895982134267814</v>
+        <v>0.9896210035801725</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>420</v>
@@ -2066,19 +2066,19 @@
         <v>450165</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>438771</v>
+        <v>437911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>457934</v>
+        <v>458805</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9591278716612608</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9348524986741648</v>
+        <v>0.9330208206272851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9756810895674246</v>
+        <v>0.9775367515993328</v>
       </c>
     </row>
     <row r="23">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7659</v>
+        <v>7244</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01280657582189643</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04503529073884698</v>
+        <v>0.04259967518625717</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5225</v>
+        <v>4977</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01015651177769973</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0533785813403327</v>
+        <v>0.0508373784261874</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2212,19 +2212,19 @@
         <v>3172</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9192</v>
+        <v>8587</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01183839916757274</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003726364760715944</v>
+        <v>0.003659163992051823</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03430429050484777</v>
+        <v>0.03204550067072266</v>
       </c>
     </row>
     <row r="25">
@@ -2241,19 +2241,19 @@
         <v>4240</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1068</v>
+        <v>1042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9707</v>
+        <v>9856</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02493170349391819</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006280662687666709</v>
+        <v>0.006129630092477609</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05708200057419433</v>
+        <v>0.05795855934466841</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2278,16 +2278,16 @@
         <v>1042</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9641</v>
+        <v>10033</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01582313371116453</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003889839930732011</v>
+        <v>0.003888761826360247</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03598001993096642</v>
+        <v>0.03744236206615636</v>
       </c>
     </row>
     <row r="26">
@@ -2304,19 +2304,19 @@
         <v>5949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1992</v>
+        <v>2141</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12511</v>
+        <v>13046</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0349810728598982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01171481917713402</v>
+        <v>0.01258757215653521</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07357072240189862</v>
+        <v>0.07671740297750902</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5227</v>
+        <v>5258</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00984931204818368</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05339596403297162</v>
+        <v>0.05370661269612574</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2346,19 +2346,19 @@
         <v>6913</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2935</v>
+        <v>2930</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13780</v>
+        <v>13206</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02579941396632053</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01095501547374324</v>
+        <v>0.01093345113542395</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05142602628538241</v>
+        <v>0.04928591715312888</v>
       </c>
     </row>
     <row r="27">
@@ -2375,19 +2375,19 @@
         <v>157692</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>150157</v>
+        <v>149935</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>163291</v>
+        <v>163143</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9272806478242872</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8829722244404221</v>
+        <v>0.8816648182181426</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9602036933812509</v>
+        <v>0.9593330153112395</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>94</v>
@@ -2396,7 +2396,7 @@
         <v>95937</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>91920</v>
+        <v>90426</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>97895</v>
@@ -2405,7 +2405,7 @@
         <v>0.9799941761741165</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9389649994176109</v>
+        <v>0.9237038137503819</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -2417,19 +2417,19 @@
         <v>253629</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>244488</v>
+        <v>246097</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>259816</v>
+        <v>259911</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9465390531549422</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.912426822651744</v>
+        <v>0.918429680581072</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9696297800914363</v>
+        <v>0.9699843599917566</v>
       </c>
     </row>
     <row r="28">
@@ -2521,19 +2521,19 @@
         <v>7940</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3899</v>
+        <v>3760</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15024</v>
+        <v>14258</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03826395934554178</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01879176343388193</v>
+        <v>0.01811783572527091</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07240431265348585</v>
+        <v>0.0687110048400411</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6183</v>
+        <v>5978</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01860129140660889</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05877364044228757</v>
+        <v>0.05682387188687933</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2563,19 +2563,19 @@
         <v>9897</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4846</v>
+        <v>4974</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17883</v>
+        <v>17691</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03164896043358178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01549643088640176</v>
+        <v>0.01590574642451683</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05718773389215797</v>
+        <v>0.05657383656681214</v>
       </c>
     </row>
     <row r="30">
@@ -2592,19 +2592,19 @@
         <v>7957</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3870</v>
+        <v>3878</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14957</v>
+        <v>15203</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03834812933694217</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01864894758047137</v>
+        <v>0.0186869226010485</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07208245001433035</v>
+        <v>0.07326339967925279</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2613,19 +2613,19 @@
         <v>4935</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1915</v>
+        <v>1937</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11012</v>
+        <v>11066</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04691044858184746</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01820626354576583</v>
+        <v>0.01841415769676806</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1046740672735562</v>
+        <v>0.1051871177271849</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -2634,19 +2634,19 @@
         <v>12893</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6996</v>
+        <v>6982</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21880</v>
+        <v>20590</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0412287014274037</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02237343480489371</v>
+        <v>0.0223264605213826</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0699691071509867</v>
+        <v>0.0658441412254456</v>
       </c>
     </row>
     <row r="31">
@@ -2663,19 +2663,19 @@
         <v>14920</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7865</v>
+        <v>8820</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24223</v>
+        <v>24328</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07190114257894008</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03790102039271667</v>
+        <v>0.04250508157269007</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1167329842315756</v>
+        <v>0.1172410510714575</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2684,19 +2684,19 @@
         <v>3937</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9748</v>
+        <v>8991</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03741859192840666</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009306933622818781</v>
+        <v>0.009259504881716138</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09265512359676351</v>
+        <v>0.08546240596187536</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>18</v>
@@ -2705,19 +2705,19 @@
         <v>18856</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11745</v>
+        <v>11450</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>28833</v>
+        <v>28959</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06030037529022272</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03755921963766609</v>
+        <v>0.03661720404554911</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09220605578096809</v>
+        <v>0.09260776562506494</v>
       </c>
     </row>
     <row r="32">
@@ -2734,19 +2734,19 @@
         <v>176688</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>165277</v>
+        <v>164770</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>185579</v>
+        <v>186085</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.851486768738576</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7964961409676629</v>
+        <v>0.7940511038475684</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8943343992734855</v>
+        <v>0.896771380410328</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>90</v>
@@ -2755,19 +2755,19 @@
         <v>94374</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>87200</v>
+        <v>86392</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>99365</v>
+        <v>99351</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.897069668083137</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8288847064128644</v>
+        <v>0.8212011815397972</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9445130338000375</v>
+        <v>0.9443828486604708</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>259</v>
@@ -2776,19 +2776,19 @@
         <v>271061</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>257755</v>
+        <v>258732</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>282385</v>
+        <v>282390</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8668219628487918</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8242686106734358</v>
+        <v>0.8273937463841555</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9030339590674065</v>
+        <v>0.903051021306237</v>
       </c>
     </row>
     <row r="33">
@@ -2880,19 +2880,19 @@
         <v>3725</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>996</v>
+        <v>914</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8749</v>
+        <v>9091</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007147946474668691</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001912306591281893</v>
+        <v>0.001753745535006116</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01679066065477358</v>
+        <v>0.01744689896407885</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5634</v>
+        <v>5372</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002881090809634014</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01717351555468941</v>
+        <v>0.01637374571383045</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2922,19 +2922,19 @@
         <v>4670</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1738</v>
+        <v>1696</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10132</v>
+        <v>9929</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005499507483218125</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002047065813909803</v>
+        <v>0.001996748806515449</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0119321823925864</v>
+        <v>0.01169343051946601</v>
       </c>
     </row>
     <row r="35">
@@ -2951,19 +2951,19 @@
         <v>9478</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4725</v>
+        <v>4611</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16711</v>
+        <v>16361</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01818916571998585</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009067516584191457</v>
+        <v>0.008848768408442889</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03206874178767488</v>
+        <v>0.03139808417569383</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7359</v>
+        <v>7336</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0060797118331837</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02243356351041633</v>
+        <v>0.02236183987396128</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -2993,19 +2993,19 @@
         <v>11473</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6575</v>
+        <v>6461</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>19975</v>
+        <v>19527</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01351085046415095</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007743595126358108</v>
+        <v>0.007608786560230176</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02352398270847342</v>
+        <v>0.02299620126018445</v>
       </c>
     </row>
     <row r="36">
@@ -3022,19 +3022,19 @@
         <v>12184</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6396</v>
+        <v>6786</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19350</v>
+        <v>20349</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02338250310130553</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01227370621375951</v>
+        <v>0.013023434465093</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0371337630330067</v>
+        <v>0.0390506779277969</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -3043,19 +3043,19 @@
         <v>3027</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>965</v>
+        <v>978</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8175</v>
+        <v>8832</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009227530895133857</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0029401683616541</v>
+        <v>0.002980868122033605</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02491965285205757</v>
+        <v>0.0269219487468585</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>16</v>
@@ -3064,19 +3064,19 @@
         <v>15212</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>9144</v>
+        <v>8879</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>24005</v>
+        <v>24568</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01791393093966369</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01076787411085582</v>
+        <v>0.01045591499549105</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02826911330932354</v>
+        <v>0.02893234173228302</v>
       </c>
     </row>
     <row r="37">
@@ -3093,19 +3093,19 @@
         <v>495705</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>484748</v>
+        <v>485547</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>503573</v>
+        <v>504312</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.95128038470404</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9302536427266447</v>
+        <v>0.9317878297998721</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9663803000903931</v>
+        <v>0.9677992015771285</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>296</v>
@@ -3114,19 +3114,19 @@
         <v>322089</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>316062</v>
+        <v>315503</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>326039</v>
+        <v>325218</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9818116664620484</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9634405630070355</v>
+        <v>0.9617357473202194</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9938523863488572</v>
+        <v>0.9913496647050885</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>757</v>
@@ -3135,19 +3135,19 @@
         <v>817794</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>805470</v>
+        <v>806962</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>827286</v>
+        <v>827729</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9630757111129672</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.948562226811233</v>
+        <v>0.9503199713004373</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9742541236362507</v>
+        <v>0.974775374177614</v>
       </c>
     </row>
     <row r="38">
@@ -3239,19 +3239,19 @@
         <v>13590</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>8080</v>
+        <v>7501</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>23171</v>
+        <v>23327</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02264096552544582</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01346028511433835</v>
+        <v>0.01249554479111938</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03860129414343958</v>
+        <v>0.03886232075372883</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -3260,19 +3260,19 @@
         <v>6142</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>14318</v>
+        <v>14690</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01528910712199966</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.005272718745053473</v>
+        <v>0.005261711102043749</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03564104929800329</v>
+        <v>0.03656890373044724</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>18</v>
@@ -3281,19 +3281,19 @@
         <v>19732</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>12383</v>
+        <v>12363</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>31316</v>
+        <v>31722</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0196934318443175</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01235842254724176</v>
+        <v>0.01233887285782312</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03125470009263463</v>
+        <v>0.03166004003541201</v>
       </c>
     </row>
     <row r="40">
@@ -3310,19 +3310,19 @@
         <v>24703</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>15853</v>
+        <v>14824</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>36428</v>
+        <v>35953</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04115333295820604</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02641066031818759</v>
+        <v>0.02469681970788807</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06068761223995701</v>
+        <v>0.05989578581214488</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -3331,19 +3331,19 @@
         <v>15081</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>8538</v>
+        <v>8688</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24613</v>
+        <v>24404</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03754045804399762</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02125451309770547</v>
+        <v>0.0216274482448949</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06126953785430816</v>
+        <v>0.06075073246398022</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>36</v>
@@ -3352,19 +3352,19 @@
         <v>39783</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>28640</v>
+        <v>28788</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>55846</v>
+        <v>53599</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03970484607081697</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02858396984846808</v>
+        <v>0.02873152485509706</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05573585646889496</v>
+        <v>0.05349384694803663</v>
       </c>
     </row>
     <row r="41">
@@ -3381,19 +3381,19 @@
         <v>13702</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7464</v>
+        <v>7660</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>23871</v>
+        <v>23477</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02282660854077804</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01243492219502178</v>
+        <v>0.01276156833618628</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03976762338922814</v>
+        <v>0.03911102666455019</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3402,19 +3402,19 @@
         <v>5243</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1974</v>
+        <v>1946</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11831</v>
+        <v>11748</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01305188742927675</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004914238532740803</v>
+        <v>0.004844146900829871</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02945096560539478</v>
+        <v>0.0292448235914821</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -3423,19 +3423,19 @@
         <v>18945</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11558</v>
+        <v>11914</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>29263</v>
+        <v>29488</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01890769197319548</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01153557737066596</v>
+        <v>0.01189084826880432</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02920590517950259</v>
+        <v>0.02943008582117378</v>
       </c>
     </row>
     <row r="42">
@@ -3452,19 +3452,19 @@
         <v>548262</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>532370</v>
+        <v>532597</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>560943</v>
+        <v>562458</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9133790929755701</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8869027414795614</v>
+        <v>0.8872808323634022</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9345041082404267</v>
+        <v>0.9370291247085231</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>341</v>
@@ -3473,19 +3473,19 @@
         <v>375248</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>363120</v>
+        <v>363250</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>383764</v>
+        <v>384616</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.934118547404726</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9039270996744672</v>
+        <v>0.9042506448729078</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9553176538899737</v>
+        <v>0.9574381972484545</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>846</v>
@@ -3494,19 +3494,19 @@
         <v>923511</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>905056</v>
+        <v>902990</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>939286</v>
+        <v>938293</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9216940301116701</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9032757851094454</v>
+        <v>0.9012135292563149</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9374379923845053</v>
+        <v>0.9364472825795022</v>
       </c>
     </row>
     <row r="43">
@@ -3598,19 +3598,19 @@
         <v>56603</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>43104</v>
+        <v>43393</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>72709</v>
+        <v>73162</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02158297613179662</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01643592764460756</v>
+        <v>0.0165460373150496</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02772460089637868</v>
+        <v>0.02789732109329921</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>20</v>
@@ -3619,19 +3619,19 @@
         <v>20948</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>12834</v>
+        <v>12730</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>32816</v>
+        <v>31359</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01268670238884361</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.007772810822987926</v>
+        <v>0.007709519506589728</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01987452080799909</v>
+        <v>0.01899206834857264</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>75</v>
@@ -3640,19 +3640,19 @@
         <v>77551</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>60940</v>
+        <v>61310</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>96764</v>
+        <v>97210</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01814586932316565</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01425910386129569</v>
+        <v>0.01434581536466386</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02264150933582904</v>
+        <v>0.02274594655986286</v>
       </c>
     </row>
     <row r="45">
@@ -3669,19 +3669,19 @@
         <v>66085</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>50080</v>
+        <v>51001</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>84116</v>
+        <v>84731</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.02519868231058463</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01909578110685467</v>
+        <v>0.01944703265327569</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03207399733028287</v>
+        <v>0.03230841908316096</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>30</v>
@@ -3690,19 +3690,19 @@
         <v>31281</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>21970</v>
+        <v>20540</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>44463</v>
+        <v>42928</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.01894457596351695</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01330552289989892</v>
+        <v>0.01243945725442233</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.026928121826816</v>
+        <v>0.02599864928700964</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>92</v>
@@ -3711,19 +3711,19 @@
         <v>97366</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>79661</v>
+        <v>80533</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>120125</v>
+        <v>120280</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.02278238621533058</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01863957428971268</v>
+        <v>0.0188436427781411</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.02810768588609779</v>
+        <v>0.02814408988574919</v>
       </c>
     </row>
     <row r="46">
@@ -3740,19 +3740,19 @@
         <v>86890</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>69061</v>
+        <v>70251</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>107014</v>
+        <v>109377</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03313189320520502</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02633357198609864</v>
+        <v>0.02678712602749797</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04080495796238932</v>
+        <v>0.04170631339501456</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>27</v>
@@ -3761,19 +3761,19 @@
         <v>27887</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>18630</v>
+        <v>18648</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>39091</v>
+        <v>39995</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01688926129037737</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01128284491471322</v>
+        <v>0.01129387376236521</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02367446845599032</v>
+        <v>0.02422231280114007</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>113</v>
@@ -3782,19 +3782,19 @@
         <v>114778</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>94889</v>
+        <v>94659</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>138411</v>
+        <v>135890</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02685649494773082</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02220273009745182</v>
+        <v>0.02214907034285395</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03238631397271156</v>
+        <v>0.0317964505703431</v>
       </c>
     </row>
     <row r="47">
@@ -3811,19 +3811,19 @@
         <v>2412984</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2381196</v>
+        <v>2381944</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2440197</v>
+        <v>2438821</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9200864483524137</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.907965546476755</v>
+        <v>0.9082509702110712</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9304628661262559</v>
+        <v>0.9299384407425615</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1447</v>
@@ -3832,19 +3832,19 @@
         <v>1571057</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1550879</v>
+        <v>1552097</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1587550</v>
+        <v>1588259</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9514794603572621</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9392591979465412</v>
+        <v>0.9399963847432906</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9614681873037439</v>
+        <v>0.9618971445437727</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3710</v>
@@ -3853,19 +3853,19 @@
         <v>3984041</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3953717</v>
+        <v>3950434</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4019130</v>
+        <v>4015949</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.932215249513773</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9251197607833447</v>
+        <v>0.9243515809443994</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9404257074951756</v>
+        <v>0.9396813177991943</v>
       </c>
     </row>
     <row r="48">
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4939</v>
+        <v>5103</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004765398446219861</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02393617955243318</v>
+        <v>0.02473126787988236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5660</v>
+        <v>5001</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002837187659398707</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01633115193377186</v>
+        <v>0.0144309319855916</v>
       </c>
     </row>
     <row r="5">
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5938</v>
+        <v>6095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009104422896461507</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02877721133544033</v>
+        <v>0.0295370514165248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6299</v>
+        <v>6578</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005420523924558282</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01817449656919938</v>
+        <v>0.01898101827449829</v>
       </c>
     </row>
     <row r="6">
@@ -4327,19 +4327,19 @@
         <v>8521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4200</v>
+        <v>4041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16060</v>
+        <v>16379</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04129678998124458</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02035593452230106</v>
+        <v>0.01958264517866466</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07783056940359229</v>
+        <v>0.07937868926735316</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4361,19 +4361,19 @@
         <v>8521</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3960</v>
+        <v>3812</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15511</v>
+        <v>16170</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02458697719190921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01142559946193781</v>
+        <v>0.01099805761645917</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04475512612992973</v>
+        <v>0.04665791879550501</v>
       </c>
     </row>
     <row r="7">
@@ -4390,19 +4390,19 @@
         <v>194958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>186815</v>
+        <v>186704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200028</v>
+        <v>200355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.944833388676074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9053701682754509</v>
+        <v>0.9048321059271227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9694040983808965</v>
+        <v>0.9709893760964454</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>139</v>
@@ -4424,19 +4424,19 @@
         <v>335192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>327532</v>
+        <v>326898</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>340394</v>
+        <v>340873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9671553112241338</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9450537725485448</v>
+        <v>0.943225787477459</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9821642472788452</v>
+        <v>0.9835485962742709</v>
       </c>
     </row>
     <row r="8">
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7046</v>
+        <v>6890</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005400893885001295</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01911721842969665</v>
+        <v>0.01869301162160277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4981</v>
+        <v>5341</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00482772592300494</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02442037408368438</v>
+        <v>0.02618531124802589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -4664,19 +4664,19 @@
         <v>2975</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8140</v>
+        <v>7952</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005196693965725168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001687204344321878</v>
+        <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01421821249715249</v>
+        <v>0.01388832457948205</v>
       </c>
     </row>
     <row r="12">
@@ -4693,7 +4693,7 @@
         <v>366573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>361518</v>
+        <v>361674</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>368564</v>
@@ -4702,7 +4702,7 @@
         <v>0.9945991061149987</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9808827815703034</v>
+        <v>0.9813069883783975</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -4714,7 +4714,7 @@
         <v>202991</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>198995</v>
+        <v>198635</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>203976</v>
@@ -4723,7 +4723,7 @@
         <v>0.995172274076995</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9755796259163156</v>
+        <v>0.9738146887519736</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -4735,19 +4735,19 @@
         <v>569565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>564400</v>
+        <v>564588</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>571574</v>
+        <v>572540</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9948033060342748</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9857817875028447</v>
+        <v>0.9861116754205178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9983127956556781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4647</v>
+        <v>4652</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003500812668717053</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01768594382577114</v>
+        <v>0.01770465408698832</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4171</v>
+        <v>4606</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002085228195310862</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009455566960600272</v>
+        <v>0.01044062145914902</v>
       </c>
     </row>
     <row r="16">
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7405</v>
+        <v>7425</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01196762169978805</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04151202819370565</v>
+        <v>0.04162463252508081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7565</v>
+        <v>8371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004839213367000136</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01714776260389975</v>
+        <v>0.01897523741219955</v>
       </c>
     </row>
     <row r="17">
@@ -5012,7 +5012,7 @@
         <v>261853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258126</v>
+        <v>258121</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>262773</v>
@@ -5021,7 +5021,7 @@
         <v>0.996499187331283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9823140561742288</v>
+        <v>0.9822953459130117</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>176252</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170982</v>
+        <v>170962</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>178387</v>
@@ -5042,7 +5042,7 @@
         <v>0.988032378300212</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9584879718062942</v>
+        <v>0.9583753674749177</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5054,19 +5054,19 @@
         <v>438105</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>432871</v>
+        <v>432590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>440261</v>
+        <v>440253</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.993075558437689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9812101234832402</v>
+        <v>0.980574370941693</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979612201109289</v>
+        <v>0.9979441246031747</v>
       </c>
     </row>
     <row r="18">
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7089</v>
+        <v>5849</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01167276697501041</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04354126533728626</v>
+        <v>0.03592669037053646</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6664</v>
+        <v>5863</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004362577107586343</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01529877317841026</v>
+        <v>0.01345935092674881</v>
       </c>
     </row>
     <row r="20">
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6676</v>
+        <v>6592</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00700450739873645</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02447207615150217</v>
+        <v>0.0241652842097277</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6649</v>
+        <v>6652</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004386644496729914</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01526413560265938</v>
+        <v>0.01526938257687174</v>
       </c>
     </row>
     <row r="21">
@@ -5284,19 +5284,19 @@
         <v>2975</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8102</v>
+        <v>8732</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01090511564332541</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003452046925901623</v>
+        <v>0.003463363427462173</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02970012474955459</v>
+        <v>0.03200762866168366</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -5305,19 +5305,19 @@
         <v>2760</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7597</v>
+        <v>8244</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01695581885257538</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005360081821125605</v>
+        <v>0.005294797382323917</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04666047817611102</v>
+        <v>0.05063492757804575</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -5326,19 +5326,19 @@
         <v>5735</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2696</v>
+        <v>2718</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11770</v>
+        <v>12470</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01316650399811603</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00618824046466545</v>
+        <v>0.006239616815383639</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02702028874281035</v>
+        <v>0.02862756146121042</v>
       </c>
     </row>
     <row r="22">
@@ -5355,19 +5355,19 @@
         <v>267920</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>261136</v>
+        <v>261414</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>270924</v>
+        <v>270896</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9820903769579381</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9572227471484347</v>
+        <v>0.9582421616594974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9931005921525542</v>
+        <v>0.9930002435441774</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>150</v>
@@ -5376,19 +5376,19 @@
         <v>158144</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151827</v>
+        <v>153185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>160987</v>
+        <v>160997</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9713714141724142</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.932566667763819</v>
+        <v>0.9409086639965935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9888303926081006</v>
+        <v>0.9888956472644373</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>402</v>
@@ -5397,19 +5397,19 @@
         <v>426064</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>418867</v>
+        <v>419178</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>430903</v>
+        <v>430833</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9780842743975677</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9615618417372473</v>
+        <v>0.962275168408805</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9891932256654803</v>
+        <v>0.9890312914429583</v>
       </c>
     </row>
     <row r="23">
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5680</v>
+        <v>6228</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01330265026383229</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06681101278857315</v>
+        <v>0.07326292680709048</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5760</v>
+        <v>5663</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004930372487632636</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02511049236877241</v>
+        <v>0.02468642203053356</v>
       </c>
     </row>
     <row r="26">
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4727</v>
+        <v>4656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006506749012323385</v>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03274379519018056</v>
+        <v>0.03224937226225358</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6333</v>
+        <v>5441</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004095147137656939</v>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02760807302331688</v>
+        <v>0.02371981710000555</v>
       </c>
     </row>
     <row r="27">
@@ -5674,7 +5674,7 @@
         <v>143425</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>139637</v>
+        <v>139708</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>144364</v>
@@ -5683,7 +5683,7 @@
         <v>0.9934932509876766</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9672562048098194</v>
+        <v>0.9677506277377458</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>83884</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>79335</v>
+        <v>78787</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>85015</v>
@@ -5704,7 +5704,7 @@
         <v>0.9866973497361677</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9331889872114268</v>
+        <v>0.9267370731929099</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>227310</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>221923</v>
+        <v>222236</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>229380</v>
@@ -5725,7 +5725,7 @@
         <v>0.9909744803747105</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9674886908581631</v>
+        <v>0.9688535671354345</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7146</v>
+        <v>6875</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01031553386036195</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03747256033179178</v>
+        <v>0.0360532692622466</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -5841,19 +5841,19 @@
         <v>4286</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10110</v>
+        <v>10521</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03566211793533749</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008529173369715048</v>
+        <v>0.00846814696852537</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08412426797720823</v>
+        <v>0.08753753151407236</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5862,19 +5862,19 @@
         <v>6253</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2755</v>
+        <v>2478</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13344</v>
+        <v>14702</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02011436905903979</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008862801140639292</v>
+        <v>0.007971560134117218</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04292336817353858</v>
+        <v>0.04729154922720992</v>
       </c>
     </row>
     <row r="30">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5712</v>
+        <v>5037</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.004972245868152851</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02995476252521437</v>
+        <v>0.02641442962690123</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5469</v>
+        <v>5407</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.009092128165471841</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04550772480673503</v>
+        <v>0.04499250165573664</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6809</v>
+        <v>6337</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006564967299567985</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02190164131139595</v>
+        <v>0.02038555655136125</v>
       </c>
     </row>
     <row r="32">
@@ -6009,19 +6009,19 @@
         <v>187778</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>182020</v>
+        <v>182338</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>189759</v>
+        <v>189775</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9847122202714852</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9545210944663743</v>
+        <v>0.9561849138823998</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9951009924261606</v>
+        <v>0.9951843127379028</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>117</v>
@@ -6030,19 +6030,19 @@
         <v>114804</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>108340</v>
+        <v>107794</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>118205</v>
+        <v>118256</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9552457538991906</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9014584064526276</v>
+        <v>0.8969177378145528</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9835427146950744</v>
+        <v>0.9839654504365857</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>300</v>
@@ -6051,19 +6051,19 @@
         <v>302582</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>294743</v>
+        <v>293992</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>306866</v>
+        <v>307004</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9733206636413922</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9481057148498004</v>
+        <v>0.9456891423473579</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9871010925754836</v>
+        <v>0.9875464306059236</v>
       </c>
     </row>
     <row r="33">
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5045</v>
+        <v>4982</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002362659726736324</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01185106404236967</v>
+        <v>0.01170420763728139</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5028</v>
+        <v>5398</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001050978662613543</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005254303194929233</v>
+        <v>0.005641143640453562</v>
       </c>
     </row>
     <row r="35">
@@ -6265,19 +6265,19 @@
         <v>5247</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14668</v>
+        <v>12373</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009875734405437092</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.002218662146856865</v>
+        <v>0.002230959672651659</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02760960398556364</v>
+        <v>0.02328859245557748</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4681</v>
+        <v>4649</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.002182839402873923</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01099539353712497</v>
+        <v>0.01092201757617093</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -6307,19 +6307,19 @@
         <v>6176</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2136</v>
+        <v>2142</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>14735</v>
+        <v>14471</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00645371454793158</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002232504309623453</v>
+        <v>0.00223857923634369</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01539727322391932</v>
+        <v>0.01512167527768087</v>
       </c>
     </row>
     <row r="37">
@@ -6336,19 +6336,19 @@
         <v>526034</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>516613</v>
+        <v>518908</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>530102</v>
+        <v>530096</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9901242655945629</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9723903960144363</v>
+        <v>0.9767114075444225</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9977813378531432</v>
+        <v>0.9977690403273484</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>404</v>
@@ -6357,7 +6357,7 @@
         <v>423752</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>418917</v>
+        <v>418962</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>425687</v>
@@ -6366,7 +6366,7 @@
         <v>0.9954545008703898</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9840961225965534</v>
+        <v>0.984201562936832</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -6378,19 +6378,19 @@
         <v>949786</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>941493</v>
+        <v>940679</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>953849</v>
+        <v>953909</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9924953067894549</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9838289197828565</v>
+        <v>0.9829782271031517</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.996741223385744</v>
+        <v>0.9968033243308261</v>
       </c>
     </row>
     <row r="38">
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5163</v>
+        <v>5104</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001699286582593404</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.008596686633442993</v>
+        <v>0.008498413195328245</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7259</v>
+        <v>7340</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.005035987928720303</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0177351339886975</v>
+        <v>0.01793393702452825</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3</v>
@@ -6524,19 +6524,19 @@
         <v>3082</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>9371</v>
+        <v>8261</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.003051601980879117</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0009648272673745935</v>
+        <v>0.0009620962592697218</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.009279082357001558</v>
+        <v>0.008180323465185864</v>
       </c>
     </row>
     <row r="40">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7089</v>
+        <v>8031</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003398573165186808</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01180284091282208</v>
+        <v>0.01337205152172823</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7176</v>
+        <v>7129</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002021182039421983</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00710556494033575</v>
+        <v>0.007059230703316167</v>
       </c>
     </row>
     <row r="41">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7104</v>
+        <v>6620</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003588662653644178</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01182869961504663</v>
+        <v>0.01102245685000946</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5030</v>
+        <v>4049</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002444569984703859</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01228896417390448</v>
+        <v>0.009892838873945042</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -6658,19 +6658,19 @@
         <v>3156</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9286</v>
+        <v>8401</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003124978921484665</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0009862193931193352</v>
+        <v>0.0009871367272400915</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009195115983854085</v>
+        <v>0.008318842568656901</v>
       </c>
     </row>
     <row r="42">
@@ -6687,19 +6687,19 @@
         <v>595363</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>588892</v>
+        <v>588075</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>598550</v>
+        <v>598533</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9913134775985756</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9805388345379932</v>
+        <v>0.9791787896807869</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9966202550490291</v>
+        <v>0.9965915689905828</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>385</v>
@@ -6708,19 +6708,19 @@
         <v>406220</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>400833</v>
+        <v>400084</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>408305</v>
+        <v>408310</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9925194420865758</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9793572588739654</v>
+        <v>0.9775256204271692</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9976124821377927</v>
+        <v>0.9976247632425985</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>955</v>
@@ -6729,19 +6729,19 @@
         <v>1001583</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>994412</v>
+        <v>994994</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1005796</v>
+        <v>1005829</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9918022370582142</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9847004115067123</v>
+        <v>0.9852771377721785</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9959734950324233</v>
+        <v>0.9960064852221771</v>
       </c>
     </row>
     <row r="43">
@@ -6833,19 +6833,19 @@
         <v>3971</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>9877</v>
+        <v>9902</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001540681673124294</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0003874577012769902</v>
+        <v>0.000383532585383268</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003832281566268258</v>
+        <v>0.003841881231168061</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -6854,19 +6854,19 @@
         <v>9253</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4741</v>
+        <v>4053</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>16101</v>
+        <v>16784</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.005362432711821049</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002747411659027432</v>
+        <v>0.002348503639954829</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.009330989868565173</v>
+        <v>0.009726594404611816</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>13</v>
@@ -6875,19 +6875,19 @@
         <v>13224</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>7737</v>
+        <v>7420</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>23059</v>
+        <v>22511</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.003073272367372269</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.001798054921979037</v>
+        <v>0.001724476114774471</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.005358882110233665</v>
+        <v>0.005231467081563386</v>
       </c>
     </row>
     <row r="45">
@@ -6904,19 +6904,19 @@
         <v>6751</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2872</v>
+        <v>2859</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>14532</v>
+        <v>12637</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.002619118418674914</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001114284004753232</v>
+        <v>0.001109159313638608</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.005638305176120597</v>
+        <v>0.004903106883780985</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>6124</v>
+        <v>6782</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0006553939761901152</v>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.00354900809050643</v>
+        <v>0.003930031493457544</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>8</v>
@@ -6946,19 +6946,19 @@
         <v>7881</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>3102</v>
+        <v>3819</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>15151</v>
+        <v>15421</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001831629705740388</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0007208244609053131</v>
+        <v>0.0008876192023578781</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.003521150111175333</v>
+        <v>0.003583816259082887</v>
       </c>
     </row>
     <row r="46">
@@ -6975,19 +6975,19 @@
         <v>22776</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>14351</v>
+        <v>13652</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>34957</v>
+        <v>33678</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.008836949106447046</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.00556797025988584</v>
+        <v>0.005296781838022436</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01356293538869388</v>
+        <v>0.01306683437580032</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -6996,19 +6996,19 @@
         <v>8903</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4390</v>
+        <v>4061</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16517</v>
+        <v>15536</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.005159192436169918</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002544174280048398</v>
+        <v>0.002353207840254077</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.009571935203017841</v>
+        <v>0.009003213970660177</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>30</v>
@@ -7017,19 +7017,19 @@
         <v>31679</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20767</v>
+        <v>22146</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>44752</v>
+        <v>44654</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.007362102735895074</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004826218929863117</v>
+        <v>0.005146701697155764</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01040025386327611</v>
+        <v>0.01037748456328877</v>
       </c>
     </row>
     <row r="47">
@@ -7046,19 +7046,19 @@
         <v>2543904</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2530296</v>
+        <v>2530888</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2554663</v>
+        <v>2554690</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9870032508017538</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9817235516280296</v>
+        <v>0.9819529706101819</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9911777430649451</v>
+        <v>0.9911879925316355</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1662</v>
@@ -7067,19 +7067,19 @@
         <v>1706281</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1695845</v>
+        <v>1696130</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1713507</v>
+        <v>1713778</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9888229808758189</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9827747803704231</v>
+        <v>0.9829402972351743</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9930106228910062</v>
+        <v>0.9931674765627353</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4059</v>
@@ -7088,19 +7088,19 @@
         <v>4250185</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4234477</v>
+        <v>4233961</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4264780</v>
+        <v>4263299</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9877329951909922</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9840824721140164</v>
+        <v>0.9839624629144736</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9911248434207572</v>
+        <v>0.9907806193767177</v>
       </c>
     </row>
     <row r="48">
